--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isiswauitmedu-my.sharepoint.com/personal/2020846896_isiswa_uitm_edu_my/Documents/Degree/SEM5 Courses/ISP611/Group Project/BusSchedulingGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_45F1A796015A51E3539E9892465ED87656CDC7FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2BB4840-1776-4D0D-AF05-F409661BF20D}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_45F1A796015A51E3539E9892465ED87656CDC7FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E770673-FEC4-4320-9E31-2EBA236FD6AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-14409]h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +106,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +131,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -151,8 +163,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -162,10 +175,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -179,6 +193,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,116 +486,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AF1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="30" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B1" s="4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3">
         <v>44587.3125</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>44587.333333333336</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44587.354166666701</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44587.375</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>44587.395833333299</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>44587.416666666701</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>44587.4375</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>44587.458333333401</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>44587.479166666701</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>44587.5</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>44587.520833333401</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>44587.541666666701</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>44587.5625</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>44587.583333333401</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>44587.604166666701</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="3">
         <v>44587.625</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="3">
         <v>44587.645833333401</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="3">
         <v>44587.666666666701</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="3">
         <v>44587.6875</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="3">
         <v>44587.708333333401</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="3">
         <v>44587.729166666701</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="3">
         <v>44587.750000000102</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="3">
         <v>44587.770833333401</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="3">
         <v>44587.791666666701</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="3">
         <v>44587.812500000102</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="3">
         <v>44587.833333333401</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="3">
         <v>44587.854166666701</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="3">
         <v>44587.875000000102</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="3">
         <v>44587.895833333401</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="3">
         <v>44587.916666666701</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="3">
         <v>44587.937500000102</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -675,7 +694,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -773,7 +792,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -871,7 +890,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -969,7 +988,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -1067,7 +1086,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -1165,7 +1184,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -1263,7 +1282,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -1361,7 +1380,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -1459,7 +1478,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -1557,7 +1576,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -1655,7 +1674,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -1753,7 +1772,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -1851,7 +1870,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -1949,7 +1968,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -2047,7 +2066,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -2145,7 +2164,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -2243,7 +2262,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -2341,7 +2360,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -2439,7 +2458,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -2537,7 +2556,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -2635,7 +2654,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -2733,7 +2752,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -2832,5 +2851,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>